--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -65,6 +65,192 @@
     <t>shopify</t>
   </si>
   <si>
+    <t>channle</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>shoplazza</t>
+  </si>
+  <si>
+    <t>yuchen.song@seel.com</t>
+  </si>
+  <si>
+    <t>00003195</t>
+  </si>
+  <si>
+    <t>2024123089200005970294557</t>
+  </si>
+  <si>
+    <t>+8613106683312</t>
+  </si>
+  <si>
+    <t>onekingslane</t>
+  </si>
+  <si>
+    <t>juan@seel.com</t>
+  </si>
+  <si>
+    <t>OrderNOkkxlo1739509787012</t>
+  </si>
+  <si>
+    <t>2025021471000001858721906</t>
+  </si>
+  <si>
+    <t>+8618770004458</t>
+  </si>
+  <si>
+    <t>curtsy</t>
+  </si>
+  <si>
+    <t>mo@seel.com</t>
+  </si>
+  <si>
+    <t>#10001</t>
+  </si>
+  <si>
+    <t>2023121101001795515230249</t>
+  </si>
+  <si>
+    <t>6101234567</t>
+  </si>
+  <si>
+    <t>sidelineswap</t>
+  </si>
+  <si>
+    <t>xie@seel.com</t>
+  </si>
+  <si>
+    <t>5636045000900091102</t>
+  </si>
+  <si>
+    <t>2024121701102932097471613</t>
+  </si>
+  <si>
+    <t>shoppremiumoutlets</t>
+  </si>
+  <si>
+    <t>SPO281735238</t>
+  </si>
+  <si>
+    <t>2024121934400003802166798</t>
+  </si>
+  <si>
+    <t>backcountry</t>
+  </si>
+  <si>
+    <t>OrderNOximrp1739509842513</t>
+  </si>
+  <si>
+    <t>2025021471000001864271894</t>
+  </si>
+  <si>
+    <t>chicv</t>
+  </si>
+  <si>
+    <t>OrderNOrehsn1739956270417</t>
+  </si>
+  <si>
+    <t>2025021999300003307065337</t>
+  </si>
+  <si>
+    <t>commentsold</t>
+  </si>
+  <si>
+    <t>Seel_Test_OrderNOdkiyp1741576151310</t>
+  </si>
+  <si>
+    <t>2025031004900001135158193</t>
+  </si>
+  <si>
+    <t>ctbids</t>
+  </si>
+  <si>
+    <t>OrderNOphdqx1739938617487</t>
+  </si>
+  <si>
+    <t>2025021999300001541791253</t>
+  </si>
+  <si>
+    <t>goodwillfinds</t>
+  </si>
+  <si>
+    <t>OrderNOsyfmj1739941882264</t>
+  </si>
+  <si>
+    <t>2025021999300001868258262</t>
+  </si>
+  <si>
+    <t>jeulia</t>
+  </si>
+  <si>
+    <t>tongshuai.jia@seel.com</t>
+  </si>
+  <si>
+    <t>test_orderid_1739859142</t>
+  </si>
+  <si>
+    <t>2025021855800002234612189</t>
+  </si>
+  <si>
+    <t>luxedujour</t>
+  </si>
+  <si>
+    <t>OrderNOsddko1739941610930</t>
+  </si>
+  <si>
+    <t>2025021999300001841115947</t>
+  </si>
+  <si>
+    <t>poizon</t>
+  </si>
+  <si>
+    <t>OrderNOzyeuo1739959796244</t>
+  </si>
+  <si>
+    <t>2025021999300003659637792</t>
+  </si>
+  <si>
+    <t>sezzle</t>
+  </si>
+  <si>
+    <t>lei.xing@seel.com</t>
+  </si>
+  <si>
+    <t>OrderNO1736332340</t>
+  </si>
+  <si>
+    <t>2025010878500003794061907</t>
+  </si>
+  <si>
+    <t>shopline</t>
+  </si>
+  <si>
+    <t>OrderNOgvlhf1739956369615</t>
+  </si>
+  <si>
+    <t>2025021999300003316982083</t>
+  </si>
+  <si>
+    <t>shopshops</t>
+  </si>
+  <si>
+    <t>OrderNOxszbr1739941949045</t>
+  </si>
+  <si>
+    <t>2025021999300001874932637</t>
+  </si>
+  <si>
+    <t>parcelpanel</t>
+  </si>
+  <si>
+    <t>#ppblingtest1089</t>
+  </si>
+  <si>
+    <t>2025010678600002276385871</t>
+  </si>
+  <si>
     <t>seel-test-alexsong-1200</t>
   </si>
   <si>
@@ -89,9 +275,6 @@
     <t>Lk3487201</t>
   </si>
   <si>
-    <t>commentsold</t>
-  </si>
-  <si>
     <t>https://dashboard-test.seel.com/</t>
   </si>
   <si>
@@ -101,9 +284,6 @@
     <t>yuchen.song+1500@seel.com</t>
   </si>
   <si>
-    <t>shopline</t>
-  </si>
-  <si>
     <t>shopline-test</t>
   </si>
   <si>
@@ -129,186 +309,6 @@
   </si>
   <si>
     <t>sc+seeltestew01@seel.com</t>
-  </si>
-  <si>
-    <t>channle</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>shoplazza</t>
-  </si>
-  <si>
-    <t>yuchen.song@seel.com</t>
-  </si>
-  <si>
-    <t>00003195</t>
-  </si>
-  <si>
-    <t>2024123089200005970294557</t>
-  </si>
-  <si>
-    <t>+8613106683312</t>
-  </si>
-  <si>
-    <t>onekingslane</t>
-  </si>
-  <si>
-    <t>juan@seel.com</t>
-  </si>
-  <si>
-    <t>OrderNOkkxlo1739509787012</t>
-  </si>
-  <si>
-    <t>2025021471000001858721906</t>
-  </si>
-  <si>
-    <t>+8618770004458</t>
-  </si>
-  <si>
-    <t>curtsy</t>
-  </si>
-  <si>
-    <t>mo@seel.com</t>
-  </si>
-  <si>
-    <t>#10001</t>
-  </si>
-  <si>
-    <t>2023121101001795515230249</t>
-  </si>
-  <si>
-    <t>6101234567</t>
-  </si>
-  <si>
-    <t>sidelineswap</t>
-  </si>
-  <si>
-    <t>xie@seel.com</t>
-  </si>
-  <si>
-    <t>5636045000900091102</t>
-  </si>
-  <si>
-    <t>2024121701102932097471613</t>
-  </si>
-  <si>
-    <t>shoppremiumoutlets</t>
-  </si>
-  <si>
-    <t>SPO281735238</t>
-  </si>
-  <si>
-    <t>2024121934400003802166798</t>
-  </si>
-  <si>
-    <t>backcountry</t>
-  </si>
-  <si>
-    <t>OrderNOximrp1739509842513</t>
-  </si>
-  <si>
-    <t>2025021471000001864271894</t>
-  </si>
-  <si>
-    <t>chicv</t>
-  </si>
-  <si>
-    <t>OrderNOrehsn1739956270417</t>
-  </si>
-  <si>
-    <t>2025021999300003307065337</t>
-  </si>
-  <si>
-    <t>Seel_Test_OrderNOdkiyp1741576151310</t>
-  </si>
-  <si>
-    <t>2025031004900001135158193</t>
-  </si>
-  <si>
-    <t>ctbids</t>
-  </si>
-  <si>
-    <t>OrderNOphdqx1739938617487</t>
-  </si>
-  <si>
-    <t>2025021999300001541791253</t>
-  </si>
-  <si>
-    <t>goodwillfinds</t>
-  </si>
-  <si>
-    <t>OrderNOsyfmj1739941882264</t>
-  </si>
-  <si>
-    <t>2025021999300001868258262</t>
-  </si>
-  <si>
-    <t>jeulia</t>
-  </si>
-  <si>
-    <t>tongshuai.jia@seel.com</t>
-  </si>
-  <si>
-    <t>test_orderid_1739859142</t>
-  </si>
-  <si>
-    <t>2025021855800002234612189</t>
-  </si>
-  <si>
-    <t>luxedujour</t>
-  </si>
-  <si>
-    <t>OrderNOsddko1739941610930</t>
-  </si>
-  <si>
-    <t>2025021999300001841115947</t>
-  </si>
-  <si>
-    <t>poizon</t>
-  </si>
-  <si>
-    <t>OrderNOzyeuo1739959796244</t>
-  </si>
-  <si>
-    <t>2025021999300003659637792</t>
-  </si>
-  <si>
-    <t>sezzle</t>
-  </si>
-  <si>
-    <t>lei.xing@seel.com</t>
-  </si>
-  <si>
-    <t>OrderNO1736332340</t>
-  </si>
-  <si>
-    <t>2025010878500003794061907</t>
-  </si>
-  <si>
-    <t>OrderNOgvlhf1739956369615</t>
-  </si>
-  <si>
-    <t>2025021999300003316982083</t>
-  </si>
-  <si>
-    <t>shopshops</t>
-  </si>
-  <si>
-    <t>OrderNOxszbr1739941949045</t>
-  </si>
-  <si>
-    <t>2025021999300001874932637</t>
-  </si>
-  <si>
-    <t>parcelpanel</t>
-  </si>
-  <si>
-    <t>#ppblingtest1089</t>
-  </si>
-  <si>
-    <t>2025010678600002276385871</t>
   </si>
 </sst>
 </file>
@@ -1506,13 +1506,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.9423076923077" customWidth="1"/>
     <col min="2" max="2" width="31.6153846153846" customWidth="1"/>
@@ -1562,155 +1562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>123123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="D4" r:id="rId2" display="SEELrock@2025" tooltip="mailto:SEELrock@2025"/>
-    <hyperlink ref="C5" r:id="rId3" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
-    <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1735,761 +1587,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2583,10 +2435,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2595,7 +2447,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
@@ -2603,19 +2455,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -2623,50 +2475,50 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2675,38 +2527,38 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2715,7 +2567,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2751,761 +2603,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13340"/>
+    <workbookView windowHeight="22760"/>
   </bookViews>
   <sheets>
     <sheet name="MD登陆数据" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -65,6 +65,72 @@
     <t>shopify</t>
   </si>
   <si>
+    <t>seel-test-alexsong-1200</t>
+  </si>
+  <si>
+    <t>yuchen.song+1200@seel.com</t>
+  </si>
+  <si>
+    <t>seel-test-store-dev-env</t>
+  </si>
+  <si>
+    <t>access+seel-test-store-dev-env@seel.com</t>
+  </si>
+  <si>
+    <t>SEELrock@2025</t>
+  </si>
+  <si>
+    <t>ShopID1725876195200</t>
+  </si>
+  <si>
+    <t>kai.li@seel.com</t>
+  </si>
+  <si>
+    <t>Lk3487201</t>
+  </si>
+  <si>
+    <t>commentsold</t>
+  </si>
+  <si>
+    <t>https://dashboard-test.seel.com/</t>
+  </si>
+  <si>
+    <t>seel-test-yuchen-4</t>
+  </si>
+  <si>
+    <t>yuchen.song+1500@seel.com</t>
+  </si>
+  <si>
+    <t>shopline</t>
+  </si>
+  <si>
+    <t>shopline-test</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1500</t>
+  </si>
+  <si>
+    <t>vooglam</t>
+  </si>
+  <si>
+    <t>yan+zeelool@seel.com</t>
+  </si>
+  <si>
+    <t>Seel_Seel_2025</t>
+  </si>
+  <si>
+    <t>zeelool</t>
+  </si>
+  <si>
+    <t>https://dashboard.seel.com/</t>
+  </si>
+  <si>
+    <t>seel-test-ew01</t>
+  </si>
+  <si>
+    <t>sc+seeltestew01@seel.com</t>
+  </si>
+  <si>
     <t>channle</t>
   </si>
   <si>
@@ -155,9 +221,6 @@
     <t>2025021999300003307065337</t>
   </si>
   <si>
-    <t>commentsold</t>
-  </si>
-  <si>
     <t>Seel_Test_OrderNOdkiyp1741576151310</t>
   </si>
   <si>
@@ -224,9 +287,6 @@
     <t>2025010878500003794061907</t>
   </si>
   <si>
-    <t>shopline</t>
-  </si>
-  <si>
     <t>OrderNOgvlhf1739956369615</t>
   </si>
   <si>
@@ -249,66 +309,6 @@
   </si>
   <si>
     <t>2025010678600002276385871</t>
-  </si>
-  <si>
-    <t>seel-test-alexsong-1200</t>
-  </si>
-  <si>
-    <t>yuchen.song+1200@seel.com</t>
-  </si>
-  <si>
-    <t>seel-test-store-dev-env</t>
-  </si>
-  <si>
-    <t>access+seel-test-store-dev-env@seel.com</t>
-  </si>
-  <si>
-    <t>SEELrock@2025</t>
-  </si>
-  <si>
-    <t>ShopID1725876195200</t>
-  </si>
-  <si>
-    <t>kai.li@seel.com</t>
-  </si>
-  <si>
-    <t>Lk3487201</t>
-  </si>
-  <si>
-    <t>https://dashboard-test.seel.com/</t>
-  </si>
-  <si>
-    <t>seel-test-yuchen-4</t>
-  </si>
-  <si>
-    <t>yuchen.song+1500@seel.com</t>
-  </si>
-  <si>
-    <t>shopline-test</t>
-  </si>
-  <si>
-    <t>seel-test-alexsong-1500</t>
-  </si>
-  <si>
-    <t>vooglam</t>
-  </si>
-  <si>
-    <t>yan+zeelool@seel.com</t>
-  </si>
-  <si>
-    <t>Seel_Seel_2025</t>
-  </si>
-  <si>
-    <t>zeelool</t>
-  </si>
-  <si>
-    <t>https://dashboard.seel.com/</t>
-  </si>
-  <si>
-    <t>seel-test-ew01</t>
-  </si>
-  <si>
-    <t>sc+seeltestew01@seel.com</t>
   </si>
 </sst>
 </file>
@@ -1506,13 +1506,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.9423076923077" customWidth="1"/>
     <col min="2" max="2" width="31.6153846153846" customWidth="1"/>
@@ -1562,7 +1562,155 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>123123</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="D4" r:id="rId2" display="SEELrock@2025" tooltip="mailto:SEELrock@2025"/>
+    <hyperlink ref="C5" r:id="rId3" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
+    <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1587,761 +1735,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2435,10 +2583,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -2447,7 +2595,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:6">
@@ -2455,19 +2603,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -2475,50 +2623,50 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2527,38 +2675,38 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2567,7 +2715,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2603,761 +2751,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="93">
   <si>
     <t>url</t>
   </si>
@@ -122,6 +122,186 @@
     <t>zeelool</t>
   </si>
   <si>
+    <t>channle</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>shoplazza</t>
+  </si>
+  <si>
+    <t>yuchen.song@seel.com</t>
+  </si>
+  <si>
+    <t>00003195</t>
+  </si>
+  <si>
+    <t>2024123089200005970294557</t>
+  </si>
+  <si>
+    <t>+8613106683312</t>
+  </si>
+  <si>
+    <t>onekingslane</t>
+  </si>
+  <si>
+    <t>juan@seel.com</t>
+  </si>
+  <si>
+    <t>OrderNOkkxlo1739509787012</t>
+  </si>
+  <si>
+    <t>2025021471000001858721906</t>
+  </si>
+  <si>
+    <t>+8618770004458</t>
+  </si>
+  <si>
+    <t>curtsy</t>
+  </si>
+  <si>
+    <t>mo@seel.com</t>
+  </si>
+  <si>
+    <t>#10001</t>
+  </si>
+  <si>
+    <t>2023121101001795515230249</t>
+  </si>
+  <si>
+    <t>6101234567</t>
+  </si>
+  <si>
+    <t>sidelineswap</t>
+  </si>
+  <si>
+    <t>xie@seel.com</t>
+  </si>
+  <si>
+    <t>5636045000900091102</t>
+  </si>
+  <si>
+    <t>2024121701102932097471613</t>
+  </si>
+  <si>
+    <t>shoppremiumoutlets</t>
+  </si>
+  <si>
+    <t>SPO281735238</t>
+  </si>
+  <si>
+    <t>2024121934400003802166798</t>
+  </si>
+  <si>
+    <t>backcountry</t>
+  </si>
+  <si>
+    <t>OrderNOximrp1739509842513</t>
+  </si>
+  <si>
+    <t>2025021471000001864271894</t>
+  </si>
+  <si>
+    <t>chicv</t>
+  </si>
+  <si>
+    <t>OrderNOrehsn1739956270417</t>
+  </si>
+  <si>
+    <t>2025021999300003307065337</t>
+  </si>
+  <si>
+    <t>Seel_Test_OrderNOdkiyp1741576151310</t>
+  </si>
+  <si>
+    <t>2025031004900001135158193</t>
+  </si>
+  <si>
+    <t>ctbids</t>
+  </si>
+  <si>
+    <t>OrderNOphdqx1739938617487</t>
+  </si>
+  <si>
+    <t>2025021999300001541791253</t>
+  </si>
+  <si>
+    <t>goodwillfinds</t>
+  </si>
+  <si>
+    <t>OrderNOsyfmj1739941882264</t>
+  </si>
+  <si>
+    <t>2025021999300001868258262</t>
+  </si>
+  <si>
+    <t>jeulia</t>
+  </si>
+  <si>
+    <t>tongshuai.jia@seel.com</t>
+  </si>
+  <si>
+    <t>test_orderid_1739859142</t>
+  </si>
+  <si>
+    <t>2025021855800002234612189</t>
+  </si>
+  <si>
+    <t>luxedujour</t>
+  </si>
+  <si>
+    <t>OrderNOsddko1739941610930</t>
+  </si>
+  <si>
+    <t>2025021999300001841115947</t>
+  </si>
+  <si>
+    <t>poizon</t>
+  </si>
+  <si>
+    <t>OrderNOzyeuo1739959796244</t>
+  </si>
+  <si>
+    <t>2025021999300003659637792</t>
+  </si>
+  <si>
+    <t>sezzle</t>
+  </si>
+  <si>
+    <t>lei.xing@seel.com</t>
+  </si>
+  <si>
+    <t>OrderNO1736332340</t>
+  </si>
+  <si>
+    <t>2025010878500003794061907</t>
+  </si>
+  <si>
+    <t>OrderNOgvlhf1739956369615</t>
+  </si>
+  <si>
+    <t>2025021999300003316982083</t>
+  </si>
+  <si>
+    <t>shopshops</t>
+  </si>
+  <si>
+    <t>OrderNOxszbr1739941949045</t>
+  </si>
+  <si>
+    <t>2025021999300001874932637</t>
+  </si>
+  <si>
+    <t>parcelpanel</t>
+  </si>
+  <si>
+    <t>#ppblingtest1089</t>
+  </si>
+  <si>
+    <t>2025010678600002276385871</t>
+  </si>
+  <si>
     <t>https://dashboard.seel.com/</t>
   </si>
   <si>
@@ -129,186 +309,6 @@
   </si>
   <si>
     <t>sc+seeltestew01@seel.com</t>
-  </si>
-  <si>
-    <t>channle</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>shoplazza</t>
-  </si>
-  <si>
-    <t>yuchen.song@seel.com</t>
-  </si>
-  <si>
-    <t>00003195</t>
-  </si>
-  <si>
-    <t>2024123089200005970294557</t>
-  </si>
-  <si>
-    <t>+8613106683312</t>
-  </si>
-  <si>
-    <t>onekingslane</t>
-  </si>
-  <si>
-    <t>juan@seel.com</t>
-  </si>
-  <si>
-    <t>OrderNOkkxlo1739509787012</t>
-  </si>
-  <si>
-    <t>2025021471000001858721906</t>
-  </si>
-  <si>
-    <t>+8618770004458</t>
-  </si>
-  <si>
-    <t>curtsy</t>
-  </si>
-  <si>
-    <t>mo@seel.com</t>
-  </si>
-  <si>
-    <t>#10001</t>
-  </si>
-  <si>
-    <t>2023121101001795515230249</t>
-  </si>
-  <si>
-    <t>6101234567</t>
-  </si>
-  <si>
-    <t>sidelineswap</t>
-  </si>
-  <si>
-    <t>xie@seel.com</t>
-  </si>
-  <si>
-    <t>5636045000900091102</t>
-  </si>
-  <si>
-    <t>2024121701102932097471613</t>
-  </si>
-  <si>
-    <t>shoppremiumoutlets</t>
-  </si>
-  <si>
-    <t>SPO281735238</t>
-  </si>
-  <si>
-    <t>2024121934400003802166798</t>
-  </si>
-  <si>
-    <t>backcountry</t>
-  </si>
-  <si>
-    <t>OrderNOximrp1739509842513</t>
-  </si>
-  <si>
-    <t>2025021471000001864271894</t>
-  </si>
-  <si>
-    <t>chicv</t>
-  </si>
-  <si>
-    <t>OrderNOrehsn1739956270417</t>
-  </si>
-  <si>
-    <t>2025021999300003307065337</t>
-  </si>
-  <si>
-    <t>Seel_Test_OrderNOdkiyp1741576151310</t>
-  </si>
-  <si>
-    <t>2025031004900001135158193</t>
-  </si>
-  <si>
-    <t>ctbids</t>
-  </si>
-  <si>
-    <t>OrderNOphdqx1739938617487</t>
-  </si>
-  <si>
-    <t>2025021999300001541791253</t>
-  </si>
-  <si>
-    <t>goodwillfinds</t>
-  </si>
-  <si>
-    <t>OrderNOsyfmj1739941882264</t>
-  </si>
-  <si>
-    <t>2025021999300001868258262</t>
-  </si>
-  <si>
-    <t>jeulia</t>
-  </si>
-  <si>
-    <t>tongshuai.jia@seel.com</t>
-  </si>
-  <si>
-    <t>test_orderid_1739859142</t>
-  </si>
-  <si>
-    <t>2025021855800002234612189</t>
-  </si>
-  <si>
-    <t>luxedujour</t>
-  </si>
-  <si>
-    <t>OrderNOsddko1739941610930</t>
-  </si>
-  <si>
-    <t>2025021999300001841115947</t>
-  </si>
-  <si>
-    <t>poizon</t>
-  </si>
-  <si>
-    <t>OrderNOzyeuo1739959796244</t>
-  </si>
-  <si>
-    <t>2025021999300003659637792</t>
-  </si>
-  <si>
-    <t>sezzle</t>
-  </si>
-  <si>
-    <t>lei.xing@seel.com</t>
-  </si>
-  <si>
-    <t>OrderNO1736332340</t>
-  </si>
-  <si>
-    <t>2025010878500003794061907</t>
-  </si>
-  <si>
-    <t>OrderNOgvlhf1739956369615</t>
-  </si>
-  <si>
-    <t>2025021999300003316982083</t>
-  </si>
-  <si>
-    <t>shopshops</t>
-  </si>
-  <si>
-    <t>OrderNOxszbr1739941949045</t>
-  </si>
-  <si>
-    <t>2025021999300001874932637</t>
-  </si>
-  <si>
-    <t>parcelpanel</t>
-  </si>
-  <si>
-    <t>#ppblingtest1089</t>
-  </si>
-  <si>
-    <t>2025010678600002276385871</t>
   </si>
 </sst>
 </file>
@@ -1506,13 +1506,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.9423076923077" customWidth="1"/>
     <col min="2" max="2" width="31.6153846153846" customWidth="1"/>
@@ -1682,26 +1682,6 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9">
-        <v>123123</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
@@ -1709,7 +1689,6 @@
     <hyperlink ref="C5" r:id="rId3" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
     <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
     <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1735,321 +1714,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
@@ -2057,10 +2036,10 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
@@ -2068,10 +2047,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
@@ -2079,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
@@ -2090,274 +2069,274 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
@@ -2365,10 +2344,10 @@
         <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
@@ -2376,10 +2355,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
@@ -2387,10 +2366,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
@@ -2398,98 +2377,98 @@
         <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2700,13 +2679,13 @@
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2751,321 +2730,321 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
@@ -3073,10 +3052,10 @@
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
@@ -3084,10 +3063,10 @@
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
@@ -3095,10 +3074,10 @@
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
@@ -3106,274 +3085,274 @@
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
@@ -3381,10 +3360,10 @@
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
@@ -3392,10 +3371,10 @@
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
@@ -3403,10 +3382,10 @@
         <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
@@ -3414,98 +3393,98 @@
         <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22760"/>
+    <workbookView windowWidth="30240" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="MD登陆数据" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="94">
   <si>
     <t>url</t>
   </si>
@@ -59,16 +59,19 @@
     <t>yuchen.song+1050@seel.com</t>
   </si>
   <si>
+    <t>12345678ABbc!!1</t>
+  </si>
+  <si>
+    <t>shopify</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1200</t>
+  </si>
+  <si>
+    <t>yuchen.song+1200@seel.com</t>
+  </si>
+  <si>
     <t>12345678ABbc!!</t>
-  </si>
-  <si>
-    <t>shopify</t>
-  </si>
-  <si>
-    <t>seel-test-alexsong-1200</t>
-  </si>
-  <si>
-    <t>yuchen.song+1200@seel.com</t>
   </si>
   <si>
     <t>seel-test-store-dev-env</t>
@@ -1509,7 +1512,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1573,7 +1576,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1587,19 +1590,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -1607,79 +1610,79 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1714,761 +1717,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2548,7 +2551,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2568,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2582,19 +2585,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -2602,90 +2605,90 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2694,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2730,761 +2733,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13340"/>
+    <workbookView windowHeight="23960"/>
   </bookViews>
   <sheets>
     <sheet name="MD登陆数据" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="98">
   <si>
     <t>url</t>
   </si>
@@ -59,7 +59,7 @@
     <t>yuchen.song+1050@seel.com</t>
   </si>
   <si>
-    <t>12345678ABbc!!1</t>
+    <t>12345678ABbc!!</t>
   </si>
   <si>
     <t>shopify</t>
@@ -71,9 +71,6 @@
     <t>yuchen.song+1200@seel.com</t>
   </si>
   <si>
-    <t>12345678ABbc!!</t>
-  </si>
-  <si>
     <t>seel-test-store-dev-env</t>
   </si>
   <si>
@@ -125,6 +122,30 @@
     <t>zeelool</t>
   </si>
   <si>
+    <t>https://dashboard.seel.com/</t>
+  </si>
+  <si>
+    <t>seel-store-prod-yuchen</t>
+  </si>
+  <si>
+    <t>yuchen.song@seel.com</t>
+  </si>
+  <si>
+    <t>seel-test-ew01</t>
+  </si>
+  <si>
+    <t>seel-test-yuchen</t>
+  </si>
+  <si>
+    <t>shopline-prod</t>
+  </si>
+  <si>
+    <t>seel-test-yuchen-3</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1700</t>
+  </si>
+  <si>
     <t>channle</t>
   </si>
   <si>
@@ -134,9 +155,6 @@
     <t>shoplazza</t>
   </si>
   <si>
-    <t>yuchen.song@seel.com</t>
-  </si>
-  <si>
     <t>00003195</t>
   </si>
   <si>
@@ -303,12 +321,6 @@
   </si>
   <si>
     <t>2025010678600002276385871</t>
-  </si>
-  <si>
-    <t>https://dashboard.seel.com/</t>
-  </si>
-  <si>
-    <t>seel-test-ew01</t>
   </si>
   <si>
     <t>sc+seeltestew01@seel.com</t>
@@ -949,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -973,6 +985,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1509,13 +1524,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="42.9423076923077" customWidth="1"/>
     <col min="2" max="2" width="31.6153846153846" customWidth="1"/>
@@ -1576,7 +1591,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1590,19 +1605,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -1610,79 +1625,179 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1692,6 +1807,16 @@
     <hyperlink ref="C5" r:id="rId3" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
     <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
     <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C9" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A10" r:id="rId4" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="C10" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C11" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A11" r:id="rId4" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="A12" r:id="rId4" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="C12" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A13" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C13" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1717,761 +1842,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2676,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -2571,7 +2696,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -2585,19 +2710,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:6">
@@ -2605,90 +2730,90 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2697,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2733,761 +2858,761 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:3">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:3">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:3">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:3">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:3">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:3">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:3">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="1" spans="1:3">
       <c r="A38" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:3">
       <c r="A39" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:3">
       <c r="A41" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:3">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:3">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="1:3">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:3">
       <c r="A48" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="1" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" spans="1:3">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="1" spans="1:3">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="1" spans="1:3">
       <c r="A54" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" spans="1:3">
       <c r="A55" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:3">
       <c r="A56" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:3">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:3">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:3">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" spans="1:3">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:3">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="1" spans="1:3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C62" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="1" spans="1:3">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:3">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="23960"/>
+    <workbookView windowWidth="30240" windowHeight="13340"/>
   </bookViews>
   <sheets>
     <sheet name="MD登陆数据" sheetId="4" r:id="rId1"/>
     <sheet name="RC渠道登陆数据" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="MD-bak" sheetId="5" r:id="rId3"/>
+    <sheet name="RC-bak" sheetId="2" r:id="rId4"/>
+    <sheet name="AI" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="119">
   <si>
     <t>url</t>
   </si>
@@ -128,12 +129,12 @@
     <t>seel-store-prod-yuchen</t>
   </si>
   <si>
+    <t>seel-test-ew01</t>
+  </si>
+  <si>
     <t>yuchen.song@seel.com</t>
   </si>
   <si>
-    <t>seel-test-ew01</t>
-  </si>
-  <si>
     <t>seel-test-yuchen</t>
   </si>
   <si>
@@ -324,6 +325,69 @@
   </si>
   <si>
     <t>sc+seeltestew01@seel.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>order number</t>
+  </si>
+  <si>
+    <t>https://seeltestalexsong1800.aftership.com/?returns_page_access=granted</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1800</t>
+  </si>
+  <si>
+    <t>#1006</t>
+  </si>
+  <si>
+    <t>c.multicia@gmail.com</t>
+  </si>
+  <si>
+    <t>#1007</t>
+  </si>
+  <si>
+    <t>#1008</t>
+  </si>
+  <si>
+    <t>https://seeltestalexsong1801.aftership.com/?returns_page_access=granted</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1801</t>
+  </si>
+  <si>
+    <t>#1004</t>
+  </si>
+  <si>
+    <t>#1005</t>
+  </si>
+  <si>
+    <t>https://seeltestalexsong1802.aftership.com/?returns_page_access=granted</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1802</t>
+  </si>
+  <si>
+    <t>#1002</t>
+  </si>
+  <si>
+    <t>#1003</t>
+  </si>
+  <si>
+    <t>https://seeltestalexsong1803.aftership.com/?returns_page_access=granted</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1803</t>
+  </si>
+  <si>
+    <t>https://seeltestalexsong1804.aftership.com/?returns_page_access=granted</t>
+  </si>
+  <si>
+    <t>seel-test-alexsong-1804</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1591,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1708,7 +1772,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1725,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1737,7 +1801,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" ht="17" spans="1:6">
@@ -1748,7 +1812,7 @@
         <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1768,7 +1832,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -1788,7 +1852,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1808,7 +1872,7 @@
     <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
     <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
     <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
-    <hyperlink ref="C9" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C9" r:id="rId5" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
     <hyperlink ref="A10" r:id="rId4" display="https://dashboard.seel.com/"/>
     <hyperlink ref="C10" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
     <hyperlink ref="C11" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
@@ -1816,7 +1880,7 @@
     <hyperlink ref="A12" r:id="rId4" display="https://dashboard.seel.com/"/>
     <hyperlink ref="C12" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
     <hyperlink ref="A13" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
-    <hyperlink ref="C13" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C13" r:id="rId5" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1856,7 +1920,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>41</v>
@@ -1867,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>42</v>
@@ -2810,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -2872,7 +2936,7 @@
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>41</v>
@@ -2883,7 +2947,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>42</v>
@@ -3638,4 +3702,251 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="67.1442307692308" customWidth="1"/>
+    <col min="2" max="2" width="36.5288461538462" customWidth="1"/>
+    <col min="3" max="3" width="18.1057692307692" customWidth="1"/>
+    <col min="4" max="4" width="28.3653846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -1591,7 +1591,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>

--- a/Test_Data/登陆数据.xlsx
+++ b/Test_Data/登陆数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13340"/>
+    <workbookView windowWidth="29100" windowHeight="13460"/>
   </bookViews>
   <sheets>
     <sheet name="MD登陆数据" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="127">
   <si>
     <t>url</t>
   </si>
@@ -123,6 +123,21 @@
     <t>zeelool</t>
   </si>
   <si>
+    <t>woo-dev</t>
+  </si>
+  <si>
+    <t>yuchen.song@seel.com</t>
+  </si>
+  <si>
+    <t>woo</t>
+  </si>
+  <si>
+    <t>wc-test</t>
+  </si>
+  <si>
+    <t>seel-test-ew001</t>
+  </si>
+  <si>
     <t>https://dashboard.seel.com/</t>
   </si>
   <si>
@@ -132,9 +147,6 @@
     <t>seel-test-ew01</t>
   </si>
   <si>
-    <t>yuchen.song@seel.com</t>
-  </si>
-  <si>
     <t>seel-test-yuchen</t>
   </si>
   <si>
@@ -147,6 +159,15 @@
     <t>seel-test-alexsong-1700</t>
   </si>
   <si>
+    <t>seel-test-prod-plus01</t>
+  </si>
+  <si>
+    <t>weifeng-li-test</t>
+  </si>
+  <si>
+    <t>seel-test-store-prod-env</t>
+  </si>
+  <si>
     <t>channle</t>
   </si>
   <si>
@@ -159,6 +180,12 @@
     <t>00003195</t>
   </si>
   <si>
+    <t>sc+seeltestew01@seel.com</t>
+  </si>
+  <si>
+    <t>ordernumber</t>
+  </si>
+  <si>
     <t>2024123089200005970294557</t>
   </si>
   <si>
@@ -322,9 +349,6 @@
   </si>
   <si>
     <t>2025010678600002276385871</t>
-  </si>
-  <si>
-    <t>sc+seeltestew01@seel.com</t>
   </si>
   <si>
     <t>URL</t>
@@ -575,12 +599,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -901,7 +931,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,16 +955,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -943,89 +973,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,7 +1080,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1331,11 +1373,132 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4923790" y="1696720"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2835910" y="1696720"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4923790" y="1910080"/>
+          <a:ext cx="254000" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1588,10 +1751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1604,299 +1767,416 @@
     <col min="6" max="6" width="26.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:6">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" s="8" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="1" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" s="8" customFormat="1" spans="1:6">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:6">
-      <c r="A4" t="s">
+    <row r="4" s="8" customFormat="1" spans="1:6">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" s="8" customFormat="1" spans="1:6">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
-      <c r="A6" s="2" t="s">
+    <row r="6" s="8" customFormat="1" spans="1:6">
+      <c r="A6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
-      <c r="A7" s="2" t="s">
+    <row r="7" s="8" customFormat="1" spans="1:6">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
-      <c r="A8" s="2" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:6">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:6">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:6">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F11" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:6">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" ht="17" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F12" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="17" spans="1:6">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" spans="1:6">
+      <c r="A14" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" s="8" customFormat="1" spans="1:6">
+      <c r="A15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="16" s="8" customFormat="1" spans="1:6">
+      <c r="A16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" s="8" customFormat="1" spans="1:6">
+      <c r="A17" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F17" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" s="8" customFormat="1" spans="1:6">
+      <c r="A18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
+      <c r="D18" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" s="8" customFormat="1"/>
+    <row r="20" s="8" customFormat="1"/>
+    <row r="21" s="8" customFormat="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="D4" r:id="rId2" display="SEELrock@2025" tooltip="mailto:SEELrock@2025"/>
-    <hyperlink ref="C5" r:id="rId3" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
-    <hyperlink ref="A7" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="A6" r:id="rId1" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
-    <hyperlink ref="A9" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
-    <hyperlink ref="C9" r:id="rId5" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="A10" r:id="rId4" display="https://dashboard.seel.com/"/>
-    <hyperlink ref="C10" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="C11" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="A11" r:id="rId4" display="https://dashboard.seel.com/"/>
-    <hyperlink ref="A12" r:id="rId4" display="https://dashboard.seel.com/"/>
-    <hyperlink ref="C12" r:id="rId5" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="A13" r:id="rId4" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
-    <hyperlink ref="C13" r:id="rId5" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A8" r:id="rId2" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="D4" r:id="rId3" display="SEELrock@2025" tooltip="mailto:SEELrock@2025"/>
+    <hyperlink ref="C5" r:id="rId4" display="kai.li@seel.com" tooltip="mailto:kai.li@seel.com"/>
+    <hyperlink ref="A7" r:id="rId2" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A6" r:id="rId2" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A11" r:id="rId5" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C11" r:id="rId6" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A12" r:id="rId5" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="C12" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C13" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A13" r:id="rId5" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="A14" r:id="rId5" display="https://dashboard.seel.com/"/>
+    <hyperlink ref="C14" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A15" r:id="rId5" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C15" r:id="rId6" display="yuchen.song+1200@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C16" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A16" r:id="rId5" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C17" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A17" r:id="rId5" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C18" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A18" r:id="rId5" display="https://dashboard.seel.com/" tooltip="https://dashboard.seel.com/"/>
+    <hyperlink ref="C9" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="C10" r:id="rId6" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
+    <hyperlink ref="A9" r:id="rId2" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A10" r:id="rId2" display="https://dashboard-test.seel.com/" tooltip="https://dashboard-test.seel.com/"/>
+    <hyperlink ref="A2" r:id="rId7" display="https://dashboard-dev.seel.com/" tooltip="https://dashboard-dev.seel.com/"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://dashboard-dev.seel.com/" tooltip="https://dashboard-dev.seel.com/"/>
+    <hyperlink ref="A5" r:id="rId7" display="https://dashboard-dev.seel.com/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="30.9230769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.1538461538462" style="1" customWidth="1"/>
@@ -1906,784 +2186,29 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>48</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:3">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
-      <c r="A45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
-      <c r="A46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
-      <c r="A47" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:3">
-      <c r="A48" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
-      <c r="A49" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
-      <c r="A50" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:3">
-      <c r="A62" t="s">
-        <v>91</v>
-      </c>
-      <c r="B62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:3">
-      <c r="A63" t="s">
-        <v>91</v>
-      </c>
-      <c r="B63" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:3">
-      <c r="A64" t="s">
-        <v>91</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:3">
-      <c r="A65" t="s">
-        <v>91</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" display="juan@seel.com" tooltip="mailto:juan@seel.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="B6" r:id="rId1" display="juan@seel.com" tooltip="mailto:juan@seel.com"/>
-    <hyperlink ref="B66" r:id="rId3" display="xie@seel.com" tooltip="mailto:xie@seel.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
-    <hyperlink ref="B50" r:id="rId1" display="juan@seel.com"/>
-    <hyperlink ref="B51" r:id="rId1" display="juan@seel.com"/>
-    <hyperlink ref="B18" r:id="rId3" display="xie@seel.com" tooltip="mailto:xie@seel.com"/>
-    <hyperlink ref="B30" r:id="rId1" display="juan@seel.com"/>
-    <hyperlink ref="B7" r:id="rId1" display="juan@seel.com"/>
-    <hyperlink ref="B67" r:id="rId3" display="xie@seel.com"/>
-    <hyperlink ref="B15" r:id="rId3" display="xie@seel.com"/>
-    <hyperlink ref="B46" r:id="rId1" display="juan@seel.com"/>
-    <hyperlink ref="B19" r:id="rId3" display="xie@seel.com"/>
-    <hyperlink ref="B54" r:id="rId4" display="lei.xing@seel.com"/>
-    <hyperlink ref="B55" r:id="rId4" display="lei.xing@seel.com"/>
-    <hyperlink ref="B14" r:id="rId3" display="xie@seel.com"/>
-    <hyperlink ref="B58" r:id="rId1" display="juan@seel.com" tooltip="mailto:juan@seel.com"/>
-    <hyperlink ref="B38" r:id="rId1" display="juan@seel.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="yuchen.song@seel.com" tooltip="mailto:yuchen.song@seel.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2871,13 +2396,13 @@
     </row>
     <row r="9" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>123123</v>
@@ -2906,777 +2431,985 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="30.9230769230769" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.1538461538462" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5769230769231" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.23076923076923" style="1"/>
+    <col min="4" max="4" width="37.0192307692308" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:4">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:4">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:4">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:4">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:4">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:4">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:3">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:3">
-      <c r="A24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:3">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:3">
-      <c r="A28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:3">
+        <v>74</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:4">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:3">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:3">
+        <v>77</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:3">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:3">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:3">
+        <v>82</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:3">
+        <v>83</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:4">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:4">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:4">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
+        <v>87</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:4">
       <c r="A46" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:4">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:4">
       <c r="A48" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:4">
       <c r="A49" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="17.6" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="17.6" spans="1:4">
       <c r="A50" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" spans="1:3">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:3">
+        <v>96</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" spans="1:3">
+        <v>97</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B58" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:3">
+        <v>98</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" spans="1:3">
+        <v>99</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" spans="1:4">
       <c r="A62" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:4">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:4">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="D64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:4">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" spans="1:3">
+        <v>102</v>
+      </c>
+      <c r="D65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="D66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="D67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:3">
+        <v>104</v>
+      </c>
+      <c r="D68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
+      </c>
+      <c r="D69" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3723,13 +3456,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3737,212 +3470,212 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
         <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" t="s">
         <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
         <v>112</v>
-      </c>
-      <c r="C10" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
         <v>117</v>
       </c>
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" t="s">
-        <v>109</v>
-      </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
